--- a/tests/test_examples/pollution_data_test_2.xlsx
+++ b/tests/test_examples/pollution_data_test_2.xlsx
@@ -894,6 +894,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
